--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Language written in.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Language written in.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="117">
   <si>
     <t/>
   </si>
@@ -26,70 +26,343 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Language written in_1</t>
-  </si>
-  <si>
-    <t>Matlab</t>
-  </si>
-  <si>
-    <t>Language written in_2</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Language written in_3</t>
-  </si>
-  <si>
-    <t>VBA</t>
-  </si>
-  <si>
-    <t>Language written in_4</t>
-  </si>
-  <si>
-    <t>Octave</t>
-  </si>
-  <si>
-    <t>Language written in_5</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Language written in_6</t>
+    <t>@Risk 4</t>
+  </si>
+  <si>
+    <t>Language_written_in_53</t>
+  </si>
+  <si>
+    <t>@Risk 5</t>
+  </si>
+  <si>
+    <t>Language_written_in_54</t>
+  </si>
+  <si>
+    <t>@Risk 6</t>
+  </si>
+  <si>
+    <t>Language_written_in_55</t>
+  </si>
+  <si>
+    <t>@Risk 7.5</t>
+  </si>
+  <si>
+    <t>Language_written_in_56</t>
+  </si>
+  <si>
+    <t>C++ 11</t>
+  </si>
+  <si>
+    <t>Language_written_in_47</t>
+  </si>
+  <si>
+    <t>C++ 14</t>
+  </si>
+  <si>
+    <t>Language_written_in_48</t>
+  </si>
+  <si>
+    <t>C++ 17</t>
+  </si>
+  <si>
+    <t>Language_written_in_49</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>Language_written_in_46</t>
+  </si>
+  <si>
+    <t>C99</t>
+  </si>
+  <si>
+    <t>Language_written_in_45</t>
+  </si>
+  <si>
+    <t>Fortran 2003</t>
+  </si>
+  <si>
+    <t>Language_written_in_51</t>
+  </si>
+  <si>
+    <t>Fortran 2008</t>
+  </si>
+  <si>
+    <t>Language_written_in_52</t>
+  </si>
+  <si>
+    <t>Fortran 95</t>
+  </si>
+  <si>
+    <t>Language_written_in_50</t>
+  </si>
+  <si>
+    <t>J2SE 1.2</t>
+  </si>
+  <si>
+    <t>Language_written_in_28</t>
+  </si>
+  <si>
+    <t>J2SE 1.3</t>
+  </si>
+  <si>
+    <t>Language_written_in_29</t>
+  </si>
+  <si>
+    <t>J2SE 1.4</t>
+  </si>
+  <si>
+    <t>Language_written_in_30</t>
+  </si>
+  <si>
+    <t>J2SE 5.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_31</t>
+  </si>
+  <si>
+    <t>Java SE 6</t>
+  </si>
+  <si>
+    <t>Language_written_in_32</t>
+  </si>
+  <si>
+    <t>Java SE 7</t>
+  </si>
+  <si>
+    <t>Language_written_in_33</t>
+  </si>
+  <si>
+    <t>Java SE 8</t>
+  </si>
+  <si>
+    <t>Language_written_in_34</t>
+  </si>
+  <si>
+    <t>Java SE 9</t>
+  </si>
+  <si>
+    <t>Language_written_in_35</t>
+  </si>
+  <si>
+    <t>JDK 1.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_26</t>
+  </si>
+  <si>
+    <t>JDK 1.1</t>
+  </si>
+  <si>
+    <t>Language_written_in_27</t>
+  </si>
+  <si>
+    <t>MATLAB 1.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_14</t>
+  </si>
+  <si>
+    <t>MATLAB 2</t>
+  </si>
+  <si>
+    <t>Language_written_in_15</t>
+  </si>
+  <si>
+    <t>MATLAB 3</t>
+  </si>
+  <si>
+    <t>Language_written_in_16</t>
+  </si>
+  <si>
+    <t>MATLAB 3.5</t>
+  </si>
+  <si>
+    <t>Language_written_in_17</t>
+  </si>
+  <si>
+    <t>MATLAB 4</t>
+  </si>
+  <si>
+    <t>Language_written_in_18</t>
+  </si>
+  <si>
+    <t>MATLAB 4.2c</t>
+  </si>
+  <si>
+    <t>Language_written_in_19</t>
+  </si>
+  <si>
+    <t>MATLAB 5.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_20</t>
+  </si>
+  <si>
+    <t>MATLAB 6.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_21</t>
+  </si>
+  <si>
+    <t>MATLAB 7</t>
+  </si>
+  <si>
+    <t>Language_written_in_22</t>
+  </si>
+  <si>
+    <t>MATLAB 8</t>
+  </si>
+  <si>
+    <t>Language_written_in_23</t>
+  </si>
+  <si>
+    <t>MATLAB 9.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_24</t>
+  </si>
+  <si>
+    <t>MATLAB 9.4</t>
+  </si>
+  <si>
+    <t>Language_written_in_25</t>
+  </si>
+  <si>
+    <t>Octave 2.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_38</t>
+  </si>
+  <si>
+    <t>Octave 3.0.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_39</t>
+  </si>
+  <si>
+    <t>Octave 4.0.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_40</t>
+  </si>
+  <si>
+    <t>Octave 4.2.2</t>
+  </si>
+  <si>
+    <t>Language_written_in_41</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>Language written in_7</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Language written in_8</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>Language written in_9</t>
-  </si>
-  <si>
-    <t>Fortran</t>
-  </si>
-  <si>
-    <t>Language written in_10</t>
-  </si>
-  <si>
-    <t>@Risk</t>
-  </si>
-  <si>
-    <t>Language written in_11</t>
+    <t>Language_written_in_57</t>
+  </si>
+  <si>
+    <t>Python 2.0.1</t>
+  </si>
+  <si>
+    <t>Language_written_in_42</t>
+  </si>
+  <si>
+    <t>Python 3.1.0</t>
+  </si>
+  <si>
+    <t>Language_written_in_43</t>
+  </si>
+  <si>
+    <t>Python 3.4.8</t>
+  </si>
+  <si>
+    <t>Language_written_in_44</t>
+  </si>
+  <si>
+    <t>R 0.16</t>
+  </si>
+  <si>
+    <t>Language_written_in_1</t>
+  </si>
+  <si>
+    <t>R 0.49</t>
+  </si>
+  <si>
+    <t>Language_written_in_2</t>
+  </si>
+  <si>
+    <t>R 0.6</t>
+  </si>
+  <si>
+    <t>Language_written_in_3</t>
+  </si>
+  <si>
+    <t>R 1</t>
+  </si>
+  <si>
+    <t>Language_written_in_4</t>
+  </si>
+  <si>
+    <t>R 1.4</t>
+  </si>
+  <si>
+    <t>Language_written_in_5</t>
+  </si>
+  <si>
+    <t>Language_written_in_11</t>
+  </si>
+  <si>
+    <t>R 2</t>
+  </si>
+  <si>
+    <t>Language_written_in_6</t>
+  </si>
+  <si>
+    <t>R 2.1</t>
+  </si>
+  <si>
+    <t>Language_written_in_7</t>
+  </si>
+  <si>
+    <t>R 2.11</t>
+  </si>
+  <si>
+    <t>Language_written_in_8</t>
+  </si>
+  <si>
+    <t>R 2.13</t>
+  </si>
+  <si>
+    <t>Language_written_in_9</t>
+  </si>
+  <si>
+    <t>R 2.14</t>
+  </si>
+  <si>
+    <t>Language_written_in_10</t>
+  </si>
+  <si>
+    <t>R 2.15</t>
+  </si>
+  <si>
+    <t>Language_written_in_12</t>
+  </si>
+  <si>
+    <t>R 3</t>
+  </si>
+  <si>
+    <t>Language_written_in_13</t>
+  </si>
+  <si>
+    <t>VBA 6</t>
+  </si>
+  <si>
+    <t>Language_written_in_36</t>
+  </si>
+  <si>
+    <t>VBA 7.1</t>
+  </si>
+  <si>
+    <t>Language_written_in_37</t>
   </si>
 </sst>
 </file>
@@ -267,142 +540,372 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13"/>
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15"/>
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16"/>
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17"/>
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18"/>
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19"/>
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20"/>
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21"/>
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22"/>
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23"/>
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="24">
-      <c r="B24"/>
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25"/>
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26"/>
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27"/>
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28"/>
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29"/>
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30"/>
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31"/>
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32"/>
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33"/>
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="34">
-      <c r="B34"/>
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="35">
-      <c r="B35"/>
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="36">
-      <c r="B36"/>
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37">
-      <c r="B37"/>
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38">
-      <c r="B38"/>
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39">
-      <c r="B39"/>
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40">
-      <c r="B40"/>
+      <c r="A40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41">
-      <c r="B41"/>
+      <c r="A41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42">
-      <c r="B42"/>
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43">
-      <c r="B43"/>
+      <c r="A43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44">
-      <c r="B44"/>
+      <c r="A44" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="45">
-      <c r="B45"/>
+      <c r="A45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46"/>
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47"/>
+      <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48"/>
+      <c r="A48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49"/>
+      <c r="A49" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50"/>
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51"/>
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52"/>
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="53">
-      <c r="B53"/>
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54"/>
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55"/>
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56"/>
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57"/>
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58"/>
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="59">
       <c r="B59"/>
